--- a/data/donnees_SALAMA_2023-07-24.xlsx
+++ b/data/donnees_SALAMA_2023-07-24.xlsx
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>-254920</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>254920</v>
@@ -1057,7 +1057,7 @@
         <v>881480</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>1136420</v>
+        <v>881500</v>
       </c>
     </row>
     <row r="18">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>5389585.43</v>
+        <v>5588985.43</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>634210</v>
@@ -1617,7 +1617,7 @@
         <v>15045600.64</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>21069396.07</v>
+        <v>21268796.07</v>
       </c>
     </row>
     <row r="34">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0</v>
+        <v>-1702500</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>1702620</v>
@@ -3717,7 +3717,7 @@
         <v>-200</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>1702420</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="94">
